--- a/Data/Predictions/SVM/SVM_Classifier_Predictions_VGG.xlsx
+++ b/Data/Predictions/SVM/SVM_Classifier_Predictions_VGG.xlsx
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23217,7 +23217,7 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -24135,7 +24135,7 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -25593,7 +25593,7 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       </c>
       <c r="E944" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -26295,7 +26295,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -26322,7 +26322,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26430,7 +26430,7 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -27510,7 +27510,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -27699,7 +27699,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28509,7 +28509,7 @@
       </c>
       <c r="E1040" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29157,7 +29157,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29238,7 +29238,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29481,7 +29481,7 @@
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29886,7 +29886,7 @@
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33207,7 +33207,7 @@
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34152,7 +34152,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34287,7 +34287,7 @@
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34503,7 +34503,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35286,7 +35286,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35664,7 +35664,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35691,7 +35691,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -37122,7 +37122,7 @@
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -38283,7 +38283,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -38553,7 +38553,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39309,7 +39309,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39579,7 +39579,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39957,7 +39957,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -40119,7 +40119,7 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -40362,7 +40362,7 @@
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
